--- a/data/pca/factorExposure/factorExposure_2017-09-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0234140636708088</v>
+        <v>-0.004792246028443681</v>
       </c>
       <c r="C2">
-        <v>-0.0001517738677325487</v>
+        <v>-0.03837246255003653</v>
       </c>
       <c r="D2">
-        <v>0.01357014778529126</v>
+        <v>0.02947971333699611</v>
       </c>
       <c r="E2">
-        <v>-0.01060572535030358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02659221138649166</v>
+      </c>
+      <c r="F2">
+        <v>-0.02585766231449307</v>
+      </c>
+      <c r="G2">
+        <v>-0.03125322147876897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01298182692621432</v>
+        <v>-0.04971563764682499</v>
       </c>
       <c r="C3">
-        <v>0.0391443071544522</v>
+        <v>-0.07615474925791232</v>
       </c>
       <c r="D3">
-        <v>0.0074955801187711</v>
+        <v>0.01526095444896232</v>
       </c>
       <c r="E3">
-        <v>-0.00550216102866732</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.08832183853274471</v>
+      </c>
+      <c r="F3">
+        <v>-0.06499733458110246</v>
+      </c>
+      <c r="G3">
+        <v>-0.07496646334555138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02220421791640044</v>
+        <v>-0.05417253950692628</v>
       </c>
       <c r="C4">
-        <v>0.01469329313144181</v>
+        <v>-0.06121476166795825</v>
       </c>
       <c r="D4">
-        <v>0.06244790557147466</v>
+        <v>0.02330903122221964</v>
       </c>
       <c r="E4">
-        <v>0.01500875779841008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01563125106342732</v>
+      </c>
+      <c r="F4">
+        <v>-0.01291615818788107</v>
+      </c>
+      <c r="G4">
+        <v>-0.05377715186308551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01522782003883034</v>
+        <v>-0.03310298226278592</v>
       </c>
       <c r="C6">
-        <v>0.01688320211999682</v>
+        <v>-0.05108087181328656</v>
       </c>
       <c r="D6">
-        <v>0.0787609282739091</v>
+        <v>0.01619470370914829</v>
       </c>
       <c r="E6">
-        <v>0.003366447412823258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01318313228592175</v>
+      </c>
+      <c r="F6">
+        <v>-0.01010507223294612</v>
+      </c>
+      <c r="G6">
+        <v>-0.03183569380578177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01001275396172575</v>
+        <v>-0.01338436339393411</v>
       </c>
       <c r="C7">
-        <v>0.001420147460725267</v>
+        <v>-0.0363837397192556</v>
       </c>
       <c r="D7">
-        <v>0.03250764846746373</v>
+        <v>0.01346504921730688</v>
       </c>
       <c r="E7">
-        <v>0.07017192616790602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01153183300797355</v>
+      </c>
+      <c r="F7">
+        <v>-0.005942842886665398</v>
+      </c>
+      <c r="G7">
+        <v>-0.08634781489940047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0001840451242857354</v>
+        <v>0.003214286780909775</v>
       </c>
       <c r="C8">
-        <v>-0.006304988791415857</v>
+        <v>-0.01916415755831448</v>
       </c>
       <c r="D8">
-        <v>0.00742456608486944</v>
+        <v>0.00414719430691005</v>
       </c>
       <c r="E8">
-        <v>0.008847786322000863</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01969981565260306</v>
+      </c>
+      <c r="F8">
+        <v>-0.02345223291775154</v>
+      </c>
+      <c r="G8">
+        <v>-0.02588097970379741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01468542207121111</v>
+        <v>-0.02947468182253419</v>
       </c>
       <c r="C9">
-        <v>0.01285629767726397</v>
+        <v>-0.04275117940089532</v>
       </c>
       <c r="D9">
-        <v>0.04482365226575313</v>
+        <v>0.01625377795475958</v>
       </c>
       <c r="E9">
-        <v>0.005196973130608734</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01231645718283572</v>
+      </c>
+      <c r="F9">
+        <v>-0.01753054585972187</v>
+      </c>
+      <c r="G9">
+        <v>-0.0437349095144724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01143598814992474</v>
+        <v>-0.09045024827447878</v>
       </c>
       <c r="C10">
-        <v>0.1597077345934776</v>
+        <v>0.1853988098263092</v>
       </c>
       <c r="D10">
-        <v>-0.1218975306417717</v>
+        <v>-0.01756814181836921</v>
       </c>
       <c r="E10">
-        <v>0.01608034481218424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01325795483330256</v>
+      </c>
+      <c r="F10">
+        <v>0.01388443328783944</v>
+      </c>
+      <c r="G10">
+        <v>-0.04515625682543012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0001529634057857475</v>
+        <v>-0.03018408156891891</v>
       </c>
       <c r="C11">
-        <v>0.004364352291150066</v>
+        <v>-0.05371267325532715</v>
       </c>
       <c r="D11">
-        <v>0.04307463055885995</v>
+        <v>0.002330746124180388</v>
       </c>
       <c r="E11">
-        <v>-0.009738598208368037</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.004462846635621673</v>
+      </c>
+      <c r="F11">
+        <v>-0.02317261671823899</v>
+      </c>
+      <c r="G11">
+        <v>-0.02566649208885241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.00550854695949472</v>
+        <v>-0.03076499025403835</v>
       </c>
       <c r="C12">
-        <v>0.01205124027650627</v>
+        <v>-0.04531915927901729</v>
       </c>
       <c r="D12">
-        <v>0.04463804512345898</v>
+        <v>0.006212260957766564</v>
       </c>
       <c r="E12">
-        <v>-0.001379604727517645</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.002802229120352771</v>
+      </c>
+      <c r="F12">
+        <v>-0.008142029339763728</v>
+      </c>
+      <c r="G12">
+        <v>-0.02904491585675773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02118160531133748</v>
+        <v>-0.01265697771368152</v>
       </c>
       <c r="C13">
-        <v>0.01123239239568979</v>
+        <v>-0.03169859360025355</v>
       </c>
       <c r="D13">
-        <v>0.01253662732369168</v>
+        <v>0.02505388214119089</v>
       </c>
       <c r="E13">
-        <v>-0.006829923439819061</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01953193663376173</v>
+      </c>
+      <c r="F13">
+        <v>-0.01556461084026147</v>
+      </c>
+      <c r="G13">
+        <v>-0.03924880941303349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007028847405749028</v>
+        <v>-0.00668117796420208</v>
       </c>
       <c r="C14">
-        <v>0.01162982942428163</v>
+        <v>-0.02625117365033121</v>
       </c>
       <c r="D14">
-        <v>0.01474708391903353</v>
+        <v>0.008810798870670187</v>
       </c>
       <c r="E14">
-        <v>0.01101732215799809</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.007351180320520141</v>
+      </c>
+      <c r="F14">
+        <v>0.001999276449244143</v>
+      </c>
+      <c r="G14">
+        <v>-0.0444850300550167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0007054655039703052</v>
+        <v>-0.0297454614820544</v>
       </c>
       <c r="C16">
-        <v>0.01168441274880598</v>
+        <v>-0.04418598832987525</v>
       </c>
       <c r="D16">
-        <v>0.04534265408902109</v>
+        <v>0.00170656670164993</v>
       </c>
       <c r="E16">
-        <v>-0.003034266542254799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.004972702820675825</v>
+      </c>
+      <c r="F16">
+        <v>-0.01142538756397348</v>
+      </c>
+      <c r="G16">
+        <v>-0.02693623030404717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01309579682918705</v>
+        <v>-0.02197436074609722</v>
       </c>
       <c r="C19">
-        <v>0.02352477428204168</v>
+        <v>-0.04942112222419134</v>
       </c>
       <c r="D19">
-        <v>0.02471395808230588</v>
+        <v>0.01665343423059329</v>
       </c>
       <c r="E19">
-        <v>0.006557819771422392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05084924377983566</v>
+      </c>
+      <c r="F19">
+        <v>-0.0332113353449307</v>
+      </c>
+      <c r="G19">
+        <v>-0.05306878193715928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01015069071996006</v>
+        <v>-0.01030407143447312</v>
       </c>
       <c r="C20">
-        <v>0.005063609582513113</v>
+        <v>-0.03419717115638113</v>
       </c>
       <c r="D20">
-        <v>0.01102066630666788</v>
+        <v>0.01326787394812786</v>
       </c>
       <c r="E20">
-        <v>0.0003295332876304319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02148965943608055</v>
+      </c>
+      <c r="F20">
+        <v>-0.0006779953252197614</v>
+      </c>
+      <c r="G20">
+        <v>-0.04234925255856532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01394241666875244</v>
+        <v>-0.01308006100579025</v>
       </c>
       <c r="C21">
-        <v>0.02944218739355536</v>
+        <v>-0.03618832703039219</v>
       </c>
       <c r="D21">
-        <v>0.01942941574279344</v>
+        <v>0.01660268767201328</v>
       </c>
       <c r="E21">
-        <v>0.01860334769309929</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.02849691450603895</v>
+      </c>
+      <c r="F21">
+        <v>-0.009899459411168092</v>
+      </c>
+      <c r="G21">
+        <v>-0.06320947824786567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004695158651358197</v>
+        <v>-0.02334114466612407</v>
       </c>
       <c r="C24">
-        <v>0.003513407343483948</v>
+        <v>-0.04740636187329671</v>
       </c>
       <c r="D24">
-        <v>0.04273004296078245</v>
+        <v>0.007204771375989629</v>
       </c>
       <c r="E24">
-        <v>-0.004168048254961491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0006996007124764925</v>
+      </c>
+      <c r="F24">
+        <v>-0.02101296156503724</v>
+      </c>
+      <c r="G24">
+        <v>-0.02905723514333971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01119450476591019</v>
+        <v>-0.03883872905443193</v>
       </c>
       <c r="C25">
-        <v>0.0207824483012132</v>
+        <v>-0.05473770855300001</v>
       </c>
       <c r="D25">
-        <v>0.04276181662779428</v>
+        <v>0.01137281025548207</v>
       </c>
       <c r="E25">
-        <v>-0.003272410343622515</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.004774626982626031</v>
+      </c>
+      <c r="F25">
+        <v>-0.01684567551575471</v>
+      </c>
+      <c r="G25">
+        <v>-0.0356534406706069</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02241869501475302</v>
+        <v>-0.01153478212871544</v>
       </c>
       <c r="C26">
-        <v>0.0075880612910632</v>
+        <v>-0.008876125768812256</v>
       </c>
       <c r="D26">
-        <v>-0.006908408821219515</v>
+        <v>0.0237321883873507</v>
       </c>
       <c r="E26">
-        <v>0.009998575847646865</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.004305426404246906</v>
+      </c>
+      <c r="F26">
+        <v>-0.0009160330151185005</v>
+      </c>
+      <c r="G26">
+        <v>-0.03335246430428321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0299941813881231</v>
+        <v>-0.1154275204563534</v>
       </c>
       <c r="C28">
-        <v>0.2351222156627294</v>
+        <v>0.2286466442322814</v>
       </c>
       <c r="D28">
-        <v>-0.1710332411672441</v>
+        <v>-0.008531299899866403</v>
       </c>
       <c r="E28">
-        <v>0.02713184541110162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.002698822256214584</v>
+      </c>
+      <c r="F28">
+        <v>0.01222582323542255</v>
+      </c>
+      <c r="G28">
+        <v>-0.06360296228076742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007249797962884789</v>
+        <v>-0.01059581251449753</v>
       </c>
       <c r="C29">
-        <v>0.01623448776020388</v>
+        <v>-0.02025465564871595</v>
       </c>
       <c r="D29">
-        <v>0.0122276709528158</v>
+        <v>0.007596990465716109</v>
       </c>
       <c r="E29">
-        <v>0.007239158458197806</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.008194213627858734</v>
+      </c>
+      <c r="F29">
+        <v>0.01105930287769469</v>
+      </c>
+      <c r="G29">
+        <v>-0.03616674821426605</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02297974457149992</v>
+        <v>-0.04067269785096007</v>
       </c>
       <c r="C30">
-        <v>-0.0006216348681199076</v>
+        <v>-0.06557345897403218</v>
       </c>
       <c r="D30">
-        <v>0.06319501548160442</v>
+        <v>0.02790969742500336</v>
       </c>
       <c r="E30">
-        <v>-0.05867954074902552</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.03738054671519159</v>
+      </c>
+      <c r="F30">
+        <v>-0.05246118193035421</v>
+      </c>
+      <c r="G30">
+        <v>-0.01396562540265828</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.007448698630140923</v>
+        <v>-0.0464339381273983</v>
       </c>
       <c r="C31">
-        <v>0.04322074853588048</v>
+        <v>-0.03227089067737647</v>
       </c>
       <c r="D31">
-        <v>0.04123589249707164</v>
+        <v>0.003551953447701165</v>
       </c>
       <c r="E31">
-        <v>0.006335039488674259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008663099123080322</v>
+      </c>
+      <c r="F31">
+        <v>0.03154812556290894</v>
+      </c>
+      <c r="G31">
+        <v>-0.03354324292934813</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00732056225078844</v>
+        <v>0.003155366663652585</v>
       </c>
       <c r="C32">
-        <v>0.01618303971998026</v>
+        <v>-0.03171966766529601</v>
       </c>
       <c r="D32">
-        <v>0.0006317897273274845</v>
+        <v>-0.004071599398122615</v>
       </c>
       <c r="E32">
-        <v>0.03035817298604661</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.007210678686894064</v>
+      </c>
+      <c r="F32">
+        <v>-0.04897391506070031</v>
+      </c>
+      <c r="G32">
+        <v>-0.05927562537975652</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01213762858721343</v>
+        <v>-0.02425473526414551</v>
       </c>
       <c r="C33">
-        <v>0.02176396813019131</v>
+        <v>-0.04785010656214163</v>
       </c>
       <c r="D33">
-        <v>0.02248778532919262</v>
+        <v>0.0147238427784006</v>
       </c>
       <c r="E33">
-        <v>-0.02196516613668062</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02118824308965125</v>
+      </c>
+      <c r="F33">
+        <v>-0.02926483295095126</v>
+      </c>
+      <c r="G33">
+        <v>-0.04207923728322435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004806219539122981</v>
+        <v>-0.03857458493980857</v>
       </c>
       <c r="C34">
-        <v>0.01942343089245877</v>
+        <v>-0.05572498757477504</v>
       </c>
       <c r="D34">
-        <v>0.04777961030354663</v>
+        <v>-0.004570609707461516</v>
       </c>
       <c r="E34">
-        <v>0.00434778427670815</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.005858625860780824</v>
+      </c>
+      <c r="F34">
+        <v>-0.02692092950506646</v>
+      </c>
+      <c r="G34">
+        <v>-0.04096842303092378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01179211934094595</v>
+        <v>-0.01082647436323381</v>
       </c>
       <c r="C36">
-        <v>0.01742277547007577</v>
+        <v>-0.007542820042559754</v>
       </c>
       <c r="D36">
-        <v>0.001187674264786717</v>
+        <v>0.01159294426028078</v>
       </c>
       <c r="E36">
-        <v>0.003808011312178437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-3.743644558340715e-05</v>
+      </c>
+      <c r="F36">
+        <v>0.003999395866820353</v>
+      </c>
+      <c r="G36">
+        <v>-0.02905775129640903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.005884372576118335</v>
+        <v>-0.03060252477623733</v>
       </c>
       <c r="C38">
-        <v>0.02957868233647525</v>
+        <v>-0.02717219657317042</v>
       </c>
       <c r="D38">
-        <v>0.01900637184473677</v>
+        <v>-0.007354409200467885</v>
       </c>
       <c r="E38">
-        <v>0.004879671064132445</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.004050271936917223</v>
+      </c>
+      <c r="F38">
+        <v>0.004375171770746093</v>
+      </c>
+      <c r="G38">
+        <v>-0.03858861400417989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005676774546022592</v>
+        <v>-0.03008251818023553</v>
       </c>
       <c r="C39">
-        <v>-0.02146945014796156</v>
+        <v>-0.08064074324871265</v>
       </c>
       <c r="D39">
-        <v>0.08900156154223808</v>
+        <v>0.01239203527087668</v>
       </c>
       <c r="E39">
-        <v>-0.01123925225732663</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02147902409043953</v>
+      </c>
+      <c r="F39">
+        <v>-0.04096790744554173</v>
+      </c>
+      <c r="G39">
+        <v>-0.02976194044644773</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.009936310272041575</v>
+        <v>-0.01812433291480424</v>
       </c>
       <c r="C40">
-        <v>0.009487359674285161</v>
+        <v>-0.03143474352221955</v>
       </c>
       <c r="D40">
-        <v>0.03603235760826828</v>
+        <v>0.01328027495495914</v>
       </c>
       <c r="E40">
-        <v>-0.006106323630080684</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.0174620566635406</v>
+      </c>
+      <c r="F40">
+        <v>-0.02130294018423683</v>
+      </c>
+      <c r="G40">
+        <v>-0.02972156400027938</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.004969612648004627</v>
+        <v>-0.01047769036138482</v>
       </c>
       <c r="C41">
-        <v>0.02005620925335862</v>
+        <v>0.000267368823928619</v>
       </c>
       <c r="D41">
-        <v>-0.01061154035151035</v>
+        <v>0.003906489925833005</v>
       </c>
       <c r="E41">
-        <v>0.004275058523606426</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002406692440832909</v>
+      </c>
+      <c r="F41">
+        <v>-0.00225462715660809</v>
+      </c>
+      <c r="G41">
+        <v>-0.02037802307206998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09431436589467286</v>
+        <v>-0.01514626650607326</v>
       </c>
       <c r="C42">
-        <v>-0.003171241908521438</v>
+        <v>-0.04379655969409928</v>
       </c>
       <c r="D42">
-        <v>0.2554044080856572</v>
+        <v>0.09555603975474466</v>
       </c>
       <c r="E42">
-        <v>-0.2955690227892245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.0426778578634439</v>
+      </c>
+      <c r="F42">
+        <v>0.0461834584574864</v>
+      </c>
+      <c r="G42">
+        <v>0.1637591386220861</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.005919896365831163</v>
+        <v>-0.02643084032767953</v>
       </c>
       <c r="C43">
-        <v>0.01970091110035598</v>
+        <v>-0.01092627578781001</v>
       </c>
       <c r="D43">
-        <v>-0.01524682699033743</v>
+        <v>0.004541930537476395</v>
       </c>
       <c r="E43">
-        <v>0.0001156878469365544</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.003302968614673405</v>
+      </c>
+      <c r="F43">
+        <v>-0.00063540424981633</v>
+      </c>
+      <c r="G43">
+        <v>-0.02774713319547109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002821537271341201</v>
+        <v>-0.01219374572146256</v>
       </c>
       <c r="C44">
-        <v>-0.0005053928141916042</v>
+        <v>-0.04974429900281767</v>
       </c>
       <c r="D44">
-        <v>0.02389629325920173</v>
+        <v>0.006710044300652055</v>
       </c>
       <c r="E44">
-        <v>0.002697427063737995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01487022669975963</v>
+      </c>
+      <c r="F44">
+        <v>-0.007581956096510516</v>
+      </c>
+      <c r="G44">
+        <v>-0.04529065732654245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01044850313939627</v>
+        <v>-0.004974077539199583</v>
       </c>
       <c r="C46">
-        <v>0.01799103189571735</v>
+        <v>-0.01698932320932898</v>
       </c>
       <c r="D46">
-        <v>0.0108306436434115</v>
+        <v>0.01159695531274495</v>
       </c>
       <c r="E46">
-        <v>0.002544096842627687</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.00493848985978781</v>
+      </c>
+      <c r="F46">
+        <v>0.01281208692909746</v>
+      </c>
+      <c r="G46">
+        <v>-0.03283628740077279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.001426695448145154</v>
+        <v>-0.07470509744142712</v>
       </c>
       <c r="C47">
-        <v>0.05486342051482303</v>
+        <v>-0.06413739751002079</v>
       </c>
       <c r="D47">
-        <v>0.054441501015366</v>
+        <v>-0.00478014763602506</v>
       </c>
       <c r="E47">
-        <v>-0.004899298089034242</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008415726935958143</v>
+      </c>
+      <c r="F47">
+        <v>0.05060368866490671</v>
+      </c>
+      <c r="G47">
+        <v>-0.03103445394700922</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.002588489182205917</v>
+        <v>-0.02023131110927179</v>
       </c>
       <c r="C48">
-        <v>0.02577144045036273</v>
+        <v>-0.00981687075881383</v>
       </c>
       <c r="D48">
-        <v>0.01149865258042735</v>
+        <v>0.001055614387915384</v>
       </c>
       <c r="E48">
-        <v>0.002167961968614586</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002329219653758869</v>
+      </c>
+      <c r="F48">
+        <v>0.01256545532350545</v>
+      </c>
+      <c r="G48">
+        <v>-0.03539417752065296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.002608787693760717</v>
+        <v>-0.07906842580370514</v>
       </c>
       <c r="C50">
-        <v>0.04617052734846266</v>
+        <v>-0.066122405683768</v>
       </c>
       <c r="D50">
-        <v>0.06241629293911605</v>
+        <v>-0.003176025604908716</v>
       </c>
       <c r="E50">
-        <v>0.02294361855219234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01224998251619531</v>
+      </c>
+      <c r="F50">
+        <v>0.04942041850973958</v>
+      </c>
+      <c r="G50">
+        <v>-0.05689600784608657</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.00700110049951975</v>
+        <v>-0.00838366844857088</v>
       </c>
       <c r="C51">
-        <v>0.01936624686925903</v>
+        <v>-0.02700259613596846</v>
       </c>
       <c r="D51">
-        <v>-0.01239563062596778</v>
+        <v>0.009339461176083039</v>
       </c>
       <c r="E51">
-        <v>0.01094688076042508</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.006604841693001334</v>
+      </c>
+      <c r="F51">
+        <v>-0.02342495929870945</v>
+      </c>
+      <c r="G51">
+        <v>-0.0588199363462957</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.004527522594320575</v>
+        <v>-0.08367847214892843</v>
       </c>
       <c r="C53">
-        <v>0.07193557280397493</v>
+        <v>-0.08107238737894011</v>
       </c>
       <c r="D53">
-        <v>0.1142240146263866</v>
+        <v>-0.004091397226900187</v>
       </c>
       <c r="E53">
-        <v>0.002021826029294754</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02855812350679261</v>
+      </c>
+      <c r="F53">
+        <v>0.0590860402359821</v>
+      </c>
+      <c r="G53">
+        <v>-0.03534625537203318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001063672097498933</v>
+        <v>-0.02950524072066338</v>
       </c>
       <c r="C54">
-        <v>0.03245405987217682</v>
+        <v>-0.01035810851089723</v>
       </c>
       <c r="D54">
-        <v>-0.008710075462695404</v>
+        <v>-0.002862482602138334</v>
       </c>
       <c r="E54">
-        <v>0.01153507278260611</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0006607906542434955</v>
+      </c>
+      <c r="F54">
+        <v>0.002999664916470187</v>
+      </c>
+      <c r="G54">
+        <v>-0.03767867648121037</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.002037817839716741</v>
+        <v>-0.07063725188065688</v>
       </c>
       <c r="C55">
-        <v>0.05305320285883251</v>
+        <v>-0.07243193835346994</v>
       </c>
       <c r="D55">
-        <v>0.09741036858613869</v>
+        <v>-0.004373136323758811</v>
       </c>
       <c r="E55">
-        <v>-0.01014000358705067</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02094905641526348</v>
+      </c>
+      <c r="F55">
+        <v>0.05542755620595613</v>
+      </c>
+      <c r="G55">
+        <v>-0.01544193137260734</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.001731368703310913</v>
+        <v>-0.1430640992955242</v>
       </c>
       <c r="C56">
-        <v>0.09500776135484594</v>
+        <v>-0.1051848937209798</v>
       </c>
       <c r="D56">
-        <v>0.1470357797976321</v>
+        <v>-0.01281026146467475</v>
       </c>
       <c r="E56">
-        <v>-0.009536615128343858</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03132327916713725</v>
+      </c>
+      <c r="F56">
+        <v>0.08534461610119867</v>
+      </c>
+      <c r="G56">
+        <v>-0.007554232935040048</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02361863917719103</v>
+        <v>-0.009347885617113038</v>
       </c>
       <c r="C57">
-        <v>0.02371132849195947</v>
+        <v>-0.009657993767327032</v>
       </c>
       <c r="D57">
-        <v>0.03763290223753048</v>
+        <v>0.02377421461295574</v>
       </c>
       <c r="E57">
-        <v>-0.007867509244739826</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02749242889693768</v>
+      </c>
+      <c r="F57">
+        <v>-0.01768672800230656</v>
+      </c>
+      <c r="G57">
+        <v>-0.02084911605336226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01026763680845381</v>
+        <v>-0.06800284883449775</v>
       </c>
       <c r="C58">
-        <v>0.09041922567500385</v>
+        <v>-0.03906370902803456</v>
       </c>
       <c r="D58">
-        <v>0.08543284119727923</v>
+        <v>0.01661650802850952</v>
       </c>
       <c r="E58">
-        <v>-0.203591471358593</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9558127288861259</v>
+      </c>
+      <c r="F58">
+        <v>0.1830061069949787</v>
+      </c>
+      <c r="G58">
+        <v>-0.00276960402604343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.02604913295610889</v>
+        <v>-0.1572498931694552</v>
       </c>
       <c r="C59">
-        <v>0.2452822787588207</v>
+        <v>0.2122644144331776</v>
       </c>
       <c r="D59">
-        <v>-0.1714504113743784</v>
+        <v>-0.01553204864809364</v>
       </c>
       <c r="E59">
-        <v>0.002968249064723401</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01047935126644328</v>
+      </c>
+      <c r="F59">
+        <v>-0.005742550415305101</v>
+      </c>
+      <c r="G59">
+        <v>-0.02207773708852931</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.03193114264267471</v>
+        <v>-0.2869497342383386</v>
       </c>
       <c r="C60">
-        <v>0.1625643697470323</v>
+        <v>-0.09767472657073015</v>
       </c>
       <c r="D60">
-        <v>0.08384402716089365</v>
+        <v>0.0119769065605656</v>
       </c>
       <c r="E60">
-        <v>-0.04424661230532053</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.009967759736797963</v>
+      </c>
+      <c r="F60">
+        <v>-0.3586405618287926</v>
+      </c>
+      <c r="G60">
+        <v>0.09237444855440013</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002865620414210409</v>
+        <v>-0.03218239288436055</v>
       </c>
       <c r="C61">
-        <v>0.005748498017508762</v>
+        <v>-0.06514207453561451</v>
       </c>
       <c r="D61">
-        <v>0.06425151141767804</v>
+        <v>0.005587411517861619</v>
       </c>
       <c r="E61">
-        <v>-0.006539722980934642</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.008680724739133292</v>
+      </c>
+      <c r="F61">
+        <v>-0.02356254532400183</v>
+      </c>
+      <c r="G61">
+        <v>-0.02809771937838858</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007165992359068</v>
+        <v>-0.01147090872046249</v>
       </c>
       <c r="C63">
-        <v>0.007412002100256062</v>
+        <v>-0.02850363679192786</v>
       </c>
       <c r="D63">
-        <v>0.008637530407099647</v>
+        <v>0.008194095913419061</v>
       </c>
       <c r="E63">
-        <v>0.009726736414715643</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.006679177954564609</v>
+      </c>
+      <c r="F63">
+        <v>0.01683868441179027</v>
+      </c>
+      <c r="G63">
+        <v>-0.04049618923990128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.006830275618839777</v>
+        <v>-0.0505060164840643</v>
       </c>
       <c r="C64">
-        <v>0.02660912105719006</v>
+        <v>-0.04045637857213379</v>
       </c>
       <c r="D64">
-        <v>0.06193936028944156</v>
+        <v>0.005508062447238006</v>
       </c>
       <c r="E64">
-        <v>-0.01195951156867765</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.006324646314990062</v>
+      </c>
+      <c r="F64">
+        <v>-0.008003624338093875</v>
+      </c>
+      <c r="G64">
+        <v>-0.02804586844386541</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01769390183485095</v>
+        <v>-0.08074987269857734</v>
       </c>
       <c r="C65">
-        <v>0.02208019027478566</v>
+        <v>-0.06208268543590625</v>
       </c>
       <c r="D65">
-        <v>0.09159513066030062</v>
+        <v>0.01581660691120364</v>
       </c>
       <c r="E65">
-        <v>0.0005717661090345469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01725787304352171</v>
+      </c>
+      <c r="F65">
+        <v>-0.0319869272609663</v>
+      </c>
+      <c r="G65">
+        <v>-0.01596135005486886</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005373252630917546</v>
+        <v>-0.0488358550853872</v>
       </c>
       <c r="C66">
-        <v>-0.01126590144242138</v>
+        <v>-0.1133431569109166</v>
       </c>
       <c r="D66">
-        <v>0.1145550875689814</v>
+        <v>0.01220590182931071</v>
       </c>
       <c r="E66">
-        <v>-0.02669278248297097</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02651191322304408</v>
+      </c>
+      <c r="F66">
+        <v>-0.05082244984598003</v>
+      </c>
+      <c r="G66">
+        <v>-0.02375288037290066</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0006099396120968534</v>
+        <v>-0.05345413479770537</v>
       </c>
       <c r="C67">
-        <v>0.04741656526667303</v>
+        <v>-0.0316554294201588</v>
       </c>
       <c r="D67">
-        <v>0.02556300444528383</v>
+        <v>-0.005444227839735571</v>
       </c>
       <c r="E67">
-        <v>0.00267224543938751</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.001626761182530559</v>
+      </c>
+      <c r="F67">
+        <v>0.0049047005811783</v>
+      </c>
+      <c r="G67">
+        <v>-0.03721722134128343</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.04439565249562931</v>
+        <v>-0.1367004636593097</v>
       </c>
       <c r="C68">
-        <v>0.221771787659433</v>
+        <v>0.2701550149834323</v>
       </c>
       <c r="D68">
-        <v>-0.161339609152719</v>
+        <v>0.002753222826009427</v>
       </c>
       <c r="E68">
-        <v>-0.004514838603190353</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01137551643183389</v>
+      </c>
+      <c r="F68">
+        <v>0.03533083041768999</v>
+      </c>
+      <c r="G68">
+        <v>-0.02453345805338566</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.003302254643912488</v>
+        <v>-0.07622994362149978</v>
       </c>
       <c r="C69">
-        <v>0.03867110985574568</v>
+        <v>-0.06596693299325834</v>
       </c>
       <c r="D69">
-        <v>0.05890461107248951</v>
+        <v>-0.008515553083867523</v>
       </c>
       <c r="E69">
-        <v>0.0004315454990092586</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02602776599255105</v>
+      </c>
+      <c r="F69">
+        <v>0.03497214456221195</v>
+      </c>
+      <c r="G69">
+        <v>-0.03232291973497278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.03106847974640181</v>
+        <v>-0.1321995464776098</v>
       </c>
       <c r="C71">
-        <v>0.1943589280906665</v>
+        <v>0.2343128648597192</v>
       </c>
       <c r="D71">
-        <v>-0.1494070091604319</v>
+        <v>-0.00624322799322018</v>
       </c>
       <c r="E71">
-        <v>0.01093455433118367</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02578775327290827</v>
+      </c>
+      <c r="F71">
+        <v>0.006001947677260741</v>
+      </c>
+      <c r="G71">
+        <v>-0.03802364292227648</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.002263758793267567</v>
+        <v>-0.08219779111947439</v>
       </c>
       <c r="C72">
-        <v>0.04508320709505526</v>
+        <v>-0.0735148731027938</v>
       </c>
       <c r="D72">
-        <v>0.1278941543325338</v>
+        <v>-0.007997372122057089</v>
       </c>
       <c r="E72">
-        <v>-0.02716051004990108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.009974754030189383</v>
+      </c>
+      <c r="F72">
+        <v>-0.03619772297212703</v>
+      </c>
+      <c r="G72">
+        <v>-0.007331147054756571</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.04576608989936057</v>
+        <v>-0.39650664535443</v>
       </c>
       <c r="C73">
-        <v>0.1919481082556414</v>
+        <v>-0.108352823653759</v>
       </c>
       <c r="D73">
-        <v>0.1487707844511176</v>
+        <v>0.01777164567338413</v>
       </c>
       <c r="E73">
-        <v>-0.1038735445968195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.04007137763698265</v>
+      </c>
+      <c r="F73">
+        <v>-0.5576822125057393</v>
+      </c>
+      <c r="G73">
+        <v>0.1592368633529064</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0001428209015631654</v>
+        <v>-0.1119819385255817</v>
       </c>
       <c r="C74">
-        <v>0.08560933936956233</v>
+        <v>-0.1183121999387961</v>
       </c>
       <c r="D74">
-        <v>0.1486805572815752</v>
+        <v>-0.009421107869852336</v>
       </c>
       <c r="E74">
-        <v>-0.0183978998820147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01226270289120403</v>
+      </c>
+      <c r="F74">
+        <v>0.0742928763335417</v>
+      </c>
+      <c r="G74">
+        <v>-0.04047801382534343</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.003871026351284113</v>
+        <v>-0.2538458321927768</v>
       </c>
       <c r="C75">
-        <v>0.2023403795924674</v>
+        <v>-0.1519699147203757</v>
       </c>
       <c r="D75">
-        <v>0.2712247374907331</v>
+        <v>-0.0299188375772029</v>
       </c>
       <c r="E75">
-        <v>-0.04367727945692504</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.04286065289631497</v>
+      </c>
+      <c r="F75">
+        <v>0.191854871879346</v>
+      </c>
+      <c r="G75">
+        <v>0.03179801378025853</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.003684495439126515</v>
+        <v>-0.1292404248270001</v>
       </c>
       <c r="C76">
-        <v>0.1414246593953115</v>
+        <v>-0.124722057759138</v>
       </c>
       <c r="D76">
-        <v>0.2344045711325461</v>
+        <v>-0.02026894892451861</v>
       </c>
       <c r="E76">
-        <v>-0.00246875786557798</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04170505371824827</v>
+      </c>
+      <c r="F76">
+        <v>0.1272041829405162</v>
+      </c>
+      <c r="G76">
+        <v>-0.02535507969019219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.011510649535743</v>
+        <v>-0.06637622152488264</v>
       </c>
       <c r="C77">
-        <v>0.01747035632515728</v>
+        <v>-0.06368349852530474</v>
       </c>
       <c r="D77">
-        <v>0.06423565521986856</v>
+        <v>0.01260926589800076</v>
       </c>
       <c r="E77">
-        <v>-0.002668155550176117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04640057530713716</v>
+      </c>
+      <c r="F77">
+        <v>-0.01558131170123382</v>
+      </c>
+      <c r="G77">
+        <v>-0.05529722451380412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.003768076083642972</v>
+        <v>-0.03914484069945163</v>
       </c>
       <c r="C78">
-        <v>0.008167461011971421</v>
+        <v>-0.05166360930836838</v>
       </c>
       <c r="D78">
-        <v>0.06637596346429928</v>
+        <v>0.006149479816908652</v>
       </c>
       <c r="E78">
-        <v>-0.002738726490137319</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.01983168063655981</v>
+      </c>
+      <c r="F78">
+        <v>-0.04260717040374411</v>
+      </c>
+      <c r="G78">
+        <v>-0.03963470872609252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01546197650233556</v>
+        <v>-0.0562841257073866</v>
       </c>
       <c r="C80">
-        <v>0.1256888553577028</v>
+        <v>-0.06643690350007171</v>
       </c>
       <c r="D80">
-        <v>0.2104590316085529</v>
+        <v>0.01364411435408965</v>
       </c>
       <c r="E80">
-        <v>0.9009619372719785</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03284028490011389</v>
+      </c>
+      <c r="F80">
+        <v>-0.05492174958618344</v>
+      </c>
+      <c r="G80">
+        <v>-0.8932436526615304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.003350676672539575</v>
+        <v>-0.147180553333626</v>
       </c>
       <c r="C81">
-        <v>0.1291918748658701</v>
+        <v>-0.09463611318265747</v>
       </c>
       <c r="D81">
-        <v>0.1682226347504141</v>
+        <v>-0.01528233657861183</v>
       </c>
       <c r="E81">
-        <v>-0.01846572627500831</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.02593538267213213</v>
+      </c>
+      <c r="F81">
+        <v>0.1256517913706591</v>
+      </c>
+      <c r="G81">
+        <v>-0.01762015850541039</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.09159381587305296</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05191662065808073</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.004578338691874496</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08037712613240502</v>
+      </c>
+      <c r="F82">
+        <v>0.01599168504859439</v>
+      </c>
+      <c r="G82">
+        <v>-0.001324275839301614</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.006543063219155965</v>
+        <v>-0.03011364212423858</v>
       </c>
       <c r="C83">
-        <v>0.02681440693031927</v>
+        <v>-0.01986612725773973</v>
       </c>
       <c r="D83">
-        <v>0.02139299385189566</v>
+        <v>0.005058410367186864</v>
       </c>
       <c r="E83">
-        <v>-0.005012369676697297</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02114996790648533</v>
+      </c>
+      <c r="F83">
+        <v>-0.02139616397532791</v>
+      </c>
+      <c r="G83">
+        <v>-0.02604201517180259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01119854738103427</v>
+        <v>-0.2271505690343687</v>
       </c>
       <c r="C85">
-        <v>0.1567236127264634</v>
+        <v>-0.1501526041646863</v>
       </c>
       <c r="D85">
-        <v>0.2613789626285175</v>
+        <v>-0.01830587956183455</v>
       </c>
       <c r="E85">
-        <v>-0.0421992860569974</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.08820903367627655</v>
+      </c>
+      <c r="F85">
+        <v>0.173778938663051</v>
+      </c>
+      <c r="G85">
+        <v>0.0489201853161131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.006619595913636971</v>
+        <v>-0.007168324885142089</v>
       </c>
       <c r="C86">
-        <v>0.02608200735900435</v>
+        <v>-0.0148145725970697</v>
       </c>
       <c r="D86">
-        <v>0.005453172717382653</v>
+        <v>0.01000089802442081</v>
       </c>
       <c r="E86">
-        <v>-0.02120651919234465</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02620107311430056</v>
+      </c>
+      <c r="F86">
+        <v>-0.03578658607726362</v>
+      </c>
+      <c r="G86">
+        <v>-0.06052091616933777</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007304611628752542</v>
+        <v>-0.01704635672884145</v>
       </c>
       <c r="C87">
-        <v>0.01181372254407507</v>
+        <v>-0.02580522943923661</v>
       </c>
       <c r="D87">
-        <v>0.03846905427538522</v>
+        <v>0.01110445411107104</v>
       </c>
       <c r="E87">
-        <v>-0.004840224716174625</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08156883610137583</v>
+      </c>
+      <c r="F87">
+        <v>-0.03266293374051273</v>
+      </c>
+      <c r="G87">
+        <v>-0.05094895231802785</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02632819503719639</v>
+        <v>-0.09001096728334895</v>
       </c>
       <c r="C88">
-        <v>0.04038180837296765</v>
+        <v>-0.06134350796710252</v>
       </c>
       <c r="D88">
-        <v>0.03051292822633449</v>
+        <v>0.02256268521743883</v>
       </c>
       <c r="E88">
-        <v>-0.00450118123926465</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.0125533718289265</v>
+      </c>
+      <c r="F88">
+        <v>0.004602368551391568</v>
+      </c>
+      <c r="G88">
+        <v>-0.02898037724968464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.0597577579920584</v>
+        <v>-0.2220285061215432</v>
       </c>
       <c r="C89">
-        <v>0.3608250949766993</v>
+        <v>0.366054246820126</v>
       </c>
       <c r="D89">
-        <v>-0.2453285437407303</v>
+        <v>-0.005442766124241187</v>
       </c>
       <c r="E89">
-        <v>-0.008384773501967136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01809163316522361</v>
+      </c>
+      <c r="F89">
+        <v>0.02410329331992261</v>
+      </c>
+      <c r="G89">
+        <v>-0.03601250150781479</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.04533415215734275</v>
+        <v>-0.1961672757185121</v>
       </c>
       <c r="C90">
-        <v>0.277425866332997</v>
+        <v>0.330847525745299</v>
       </c>
       <c r="D90">
-        <v>-0.2315213563750196</v>
+        <v>-0.009512022129685955</v>
       </c>
       <c r="E90">
-        <v>-0.01021170469566353</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01352440919898491</v>
+      </c>
+      <c r="F90">
+        <v>0.04554874121671802</v>
+      </c>
+      <c r="G90">
+        <v>-0.006139872385931062</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0004104475661183847</v>
+        <v>-0.2031785367609969</v>
       </c>
       <c r="C91">
-        <v>0.159548368808162</v>
+        <v>-0.13817292442584</v>
       </c>
       <c r="D91">
-        <v>0.2414458715756957</v>
+        <v>-0.02399708182104878</v>
       </c>
       <c r="E91">
-        <v>-0.0245605335708479</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06297474614716563</v>
+      </c>
+      <c r="F91">
+        <v>0.1661843892424797</v>
+      </c>
+      <c r="G91">
+        <v>-0.008964625818997355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.01126596886212177</v>
+        <v>-0.2023808322779838</v>
       </c>
       <c r="C92">
-        <v>0.3240499487536311</v>
+        <v>0.25877942483509</v>
       </c>
       <c r="D92">
-        <v>-0.0944931200838071</v>
+        <v>-0.04732022917981861</v>
       </c>
       <c r="E92">
-        <v>-0.009518808756379957</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.002590774469734652</v>
+      </c>
+      <c r="F92">
+        <v>0.09723723482854567</v>
+      </c>
+      <c r="G92">
+        <v>-0.07154651472880252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.04290587494490065</v>
+        <v>-0.2265255053512228</v>
       </c>
       <c r="C93">
-        <v>0.313791968709347</v>
+        <v>0.3317864051127497</v>
       </c>
       <c r="D93">
-        <v>-0.2258713587450733</v>
+        <v>-0.01695998975045683</v>
       </c>
       <c r="E93">
-        <v>-0.0349047497046802</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.002826494507252608</v>
+      </c>
+      <c r="F93">
+        <v>0.03134483832185221</v>
+      </c>
+      <c r="G93">
+        <v>0.0004080121627059909</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.02149690106439353</v>
+        <v>-0.3163799696116608</v>
       </c>
       <c r="C94">
-        <v>0.2036842389396605</v>
+        <v>-0.1783290651817722</v>
       </c>
       <c r="D94">
-        <v>0.2433341589214014</v>
+        <v>-0.01619905748428801</v>
       </c>
       <c r="E94">
-        <v>-0.07110344662251394</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1152170835481749</v>
+      </c>
+      <c r="F94">
+        <v>0.4753198381452015</v>
+      </c>
+      <c r="G94">
+        <v>0.1512928945317855</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004826534274959686</v>
+        <v>-0.08408303242487201</v>
       </c>
       <c r="C95">
-        <v>0.04995602830159647</v>
+        <v>-0.06769244928923523</v>
       </c>
       <c r="D95">
-        <v>0.07999091986775377</v>
+        <v>-0.007744720408521585</v>
       </c>
       <c r="E95">
-        <v>-0.1171762824243663</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07501889711641264</v>
+      </c>
+      <c r="F95">
+        <v>-0.1578633101681369</v>
+      </c>
+      <c r="G95">
+        <v>0.08642289107027391</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.006327729166323153</v>
+        <v>-0.1977645429068763</v>
       </c>
       <c r="C98">
-        <v>0.1599794232439736</v>
+        <v>-0.04224845992179671</v>
       </c>
       <c r="D98">
-        <v>0.1078992606654367</v>
+        <v>-0.01389409679687848</v>
       </c>
       <c r="E98">
-        <v>-0.06432558259474745</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.05924242689128714</v>
+      </c>
+      <c r="F98">
+        <v>-0.2617468635022956</v>
+      </c>
+      <c r="G98">
+        <v>0.02838481180017176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007095811499127201</v>
+        <v>-0.01045880431580158</v>
       </c>
       <c r="C101">
-        <v>0.0167583724141085</v>
+        <v>-0.0203657282217701</v>
       </c>
       <c r="D101">
-        <v>0.01283030470894957</v>
+        <v>0.007382014332681573</v>
       </c>
       <c r="E101">
-        <v>0.007383767720607365</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.008595477646637232</v>
+      </c>
+      <c r="F101">
+        <v>0.01288034611780898</v>
+      </c>
+      <c r="G101">
+        <v>-0.03617379688468086</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01484070519319146</v>
+        <v>-0.1192730637825403</v>
       </c>
       <c r="C102">
-        <v>0.09508721614457774</v>
+        <v>-0.08393524397773063</v>
       </c>
       <c r="D102">
-        <v>0.1288347550076683</v>
+        <v>0.001385455984072036</v>
       </c>
       <c r="E102">
-        <v>-0.02205870076363989</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03025279220899054</v>
+      </c>
+      <c r="F102">
+        <v>0.04287874795652363</v>
+      </c>
+      <c r="G102">
+        <v>0.0025839978670828</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001761251262548899</v>
+        <v>-0.003799072738542136</v>
       </c>
       <c r="C103">
-        <v>0.01370314655730385</v>
+        <v>-0.00540797318140555</v>
       </c>
       <c r="D103">
-        <v>0.0280636140185003</v>
+        <v>0.0004876974003296134</v>
       </c>
       <c r="E103">
-        <v>0.01254999606510468</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.002901792492316842</v>
+      </c>
+      <c r="F103">
+        <v>0.008409700895263781</v>
+      </c>
+      <c r="G103">
+        <v>-0.01776850364111566</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9836664839826251</v>
+        <v>-0.03024900040009969</v>
       </c>
       <c r="C104">
-        <v>-0.1172835422919101</v>
+        <v>0.03943738017492546</v>
       </c>
       <c r="D104">
-        <v>-0.005490269738328187</v>
+        <v>0.9871789555204492</v>
       </c>
       <c r="E104">
-        <v>0.02740480405361242</v>
+        <v>-0.03724647454387112</v>
+      </c>
+      <c r="F104">
+        <v>0.04618202901796555</v>
+      </c>
+      <c r="G104">
+        <v>0.009479892375232446</v>
       </c>
     </row>
   </sheetData>
